--- a/biology/Zoologie/Graptemys_ouachitensis/Graptemys_ouachitensis.xlsx
+++ b/biology/Zoologie/Graptemys_ouachitensis/Graptemys_ouachitensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graptemys ouachitensis est une espèce de tortue de la famille des Emydidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graptemys ouachitensis est une espèce de tortue de la famille des Emydidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis[1]. Elle se rencontre en Texas, en Louisiane, au Mississippi, en Alabama, en Oklahoma, au Kansas, en Arkansas, au Missouri, en Iowa, au Minnesota, au Wisconsin, en Indiana, en Ohio, en Virginie-Occidentale, en Illinois, au Tennessee et au Kentucky.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre en Texas, en Louisiane, au Mississippi, en Alabama, en Oklahoma, au Kansas, en Arkansas, au Missouri, en Iowa, au Minnesota, au Wisconsin, en Indiana, en Ohio, en Virginie-Occidentale, en Illinois, au Tennessee et au Kentucky.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (27 mai 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (27 mai 2011) :
 Graptemys ouachitensis ouachitensis Cagle, 1953
 Graptemys ouachitensis sabinensis Cagle, 1953</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cagle, 1953 : Two new subspecies of Graptemys pseudogeographica. Occasional. Papers of the Museum of Zoology, University of Michigan, no 546, p. 1-17 (texte intégral).</t>
         </is>
